--- a/constans/EN_data_with_answers.xlsx
+++ b/constans/EN_data_with_answers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FPCC\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\course\Projects\مستقل\joodah\quiz-main\backend\constans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08840BFF-195E-4E3E-AE92-D5B91FDB32E3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3076FE-971C-4E02-9F49-44DFE6084879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="293">
   <si>
     <t>questions</t>
   </si>
@@ -520,9 +520,6 @@
     <t>Not mention the books in the business meeting</t>
   </si>
   <si>
-    <t>Mention that you also enjoy the books after discussing business</t>
-  </si>
-  <si>
     <t>Colleagues like us more when we...</t>
   </si>
   <si>
@@ -628,9 +625,6 @@
     <t>Tell Komal that she is like family to him</t>
   </si>
   <si>
-    <t>Tell Komal that the group is doomed without her</t>
-  </si>
-  <si>
     <t>Colleagues are probably more likely to agree to a request if they...</t>
   </si>
   <si>
@@ -643,9 +637,6 @@
     <t>Agreed to a related request previously</t>
   </si>
   <si>
-    <t>Agreed to an unrelated request previously</t>
-  </si>
-  <si>
     <t>Employees are more likely to stick with commitments that are made...</t>
   </si>
   <si>
@@ -755,9 +746,6 @@
   </si>
   <si>
     <t>Experts in a related area</t>
-  </si>
-  <si>
-    <t>Experts in an unrelated area</t>
   </si>
   <si>
     <t>A and B</t>
@@ -1275,12 +1263,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="46.5703125" customWidth="1"/>
+    <col min="3" max="3" width="50.5703125" customWidth="1"/>
+    <col min="4" max="4" width="41.42578125" customWidth="1"/>
+    <col min="5" max="5" width="43.85546875" customWidth="1"/>
+    <col min="6" max="6" width="28.140625" customWidth="1"/>
     <col min="7" max="7" width="136.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1320,9 +1313,6 @@
       <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
       <c r="G2" t="s">
         <v>11</v>
       </c>
@@ -1338,9 +1328,6 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
@@ -1358,9 +1345,6 @@
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
         <v>21</v>
       </c>
       <c r="G4" t="s">
@@ -1380,9 +1364,6 @@
       <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
       <c r="G5" t="s">
         <v>26</v>
       </c>
@@ -1395,13 +1376,10 @@
         <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
         <v>30</v>
-      </c>
-      <c r="E6" t="s">
-        <v>31</v>
       </c>
       <c r="G6" t="s">
         <v>29</v>
@@ -1412,16 +1390,13 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
         <v>34</v>
       </c>
       <c r="D7" t="s">
         <v>35</v>
-      </c>
-      <c r="E7" t="s">
-        <v>36</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
@@ -1440,9 +1415,6 @@
       <c r="D8" t="s">
         <v>40</v>
       </c>
-      <c r="E8" t="s">
-        <v>41</v>
-      </c>
       <c r="G8" t="s">
         <v>41</v>
       </c>
@@ -1460,9 +1432,6 @@
       <c r="D9" t="s">
         <v>45</v>
       </c>
-      <c r="E9" t="s">
-        <v>46</v>
-      </c>
       <c r="G9" t="s">
         <v>46</v>
       </c>
@@ -1478,9 +1447,6 @@
         <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" t="s">
         <v>51</v>
       </c>
       <c r="G10" t="s">
@@ -1495,13 +1461,10 @@
         <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s">
         <v>55</v>
-      </c>
-      <c r="E11" t="s">
-        <v>56</v>
       </c>
       <c r="G11" t="s">
         <v>54</v>
@@ -1518,9 +1481,6 @@
         <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" t="s">
         <v>61</v>
       </c>
       <c r="G12" t="s">
@@ -1535,13 +1495,10 @@
         <v>63</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D13" t="s">
         <v>65</v>
-      </c>
-      <c r="E13" t="s">
-        <v>66</v>
       </c>
       <c r="G13" t="s">
         <v>64</v>
@@ -1560,9 +1517,6 @@
       <c r="D14" t="s">
         <v>70</v>
       </c>
-      <c r="E14" t="s">
-        <v>71</v>
-      </c>
       <c r="G14" t="s">
         <v>71</v>
       </c>
@@ -1575,13 +1529,10 @@
         <v>73</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D15" t="s">
         <v>75</v>
-      </c>
-      <c r="E15" t="s">
-        <v>76</v>
       </c>
       <c r="G15" t="s">
         <v>74</v>
@@ -1598,9 +1549,6 @@
         <v>79</v>
       </c>
       <c r="D16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" t="s">
         <v>81</v>
       </c>
       <c r="G16" t="s">
@@ -1615,13 +1563,10 @@
         <v>83</v>
       </c>
       <c r="C17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D17" t="s">
         <v>85</v>
-      </c>
-      <c r="E17" t="s">
-        <v>86</v>
       </c>
       <c r="G17" t="s">
         <v>84</v>
@@ -1640,9 +1585,6 @@
       <c r="D18" t="s">
         <v>90</v>
       </c>
-      <c r="E18" t="s">
-        <v>91</v>
-      </c>
       <c r="G18" t="s">
         <v>91</v>
       </c>
@@ -1655,13 +1597,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D19" t="s">
         <v>94</v>
-      </c>
-      <c r="E19" t="s">
-        <v>95</v>
       </c>
       <c r="G19" t="s">
         <v>93</v>
@@ -1680,9 +1619,6 @@
       <c r="D20" t="s">
         <v>99</v>
       </c>
-      <c r="E20" t="s">
-        <v>100</v>
-      </c>
       <c r="G20" t="s">
         <v>100</v>
       </c>
@@ -1692,16 +1628,13 @@
         <v>101</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="C21" t="s">
         <v>36</v>
       </c>
       <c r="D21" t="s">
         <v>33</v>
-      </c>
-      <c r="E21" t="s">
-        <v>102</v>
       </c>
       <c r="G21" t="s">
         <v>35</v>
@@ -1718,9 +1651,6 @@
         <v>105</v>
       </c>
       <c r="D22" t="s">
-        <v>106</v>
-      </c>
-      <c r="E22" t="s">
         <v>107</v>
       </c>
       <c r="G22" t="s">
@@ -1735,13 +1665,10 @@
         <v>109</v>
       </c>
       <c r="C23" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D23" t="s">
         <v>111</v>
-      </c>
-      <c r="E23" t="s">
-        <v>112</v>
       </c>
       <c r="G23" t="s">
         <v>110</v>
@@ -1752,16 +1679,13 @@
         <v>113</v>
       </c>
       <c r="B24" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C24" t="s">
         <v>115</v>
       </c>
       <c r="D24" t="s">
         <v>116</v>
-      </c>
-      <c r="E24" t="s">
-        <v>117</v>
       </c>
       <c r="G24" t="s">
         <v>114</v>
@@ -1778,9 +1702,6 @@
         <v>120</v>
       </c>
       <c r="D25" t="s">
-        <v>121</v>
-      </c>
-      <c r="E25" t="s">
         <v>122</v>
       </c>
       <c r="G25" t="s">
@@ -1800,9 +1721,6 @@
       <c r="D26" t="s">
         <v>33</v>
       </c>
-      <c r="E26" t="s">
-        <v>124</v>
-      </c>
       <c r="G26" t="s">
         <v>124</v>
       </c>
@@ -1820,9 +1738,6 @@
       <c r="D27" t="s">
         <v>128</v>
       </c>
-      <c r="E27" t="s">
-        <v>129</v>
-      </c>
       <c r="G27" t="s">
         <v>129</v>
       </c>
@@ -1832,16 +1747,13 @@
         <v>130</v>
       </c>
       <c r="B28" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C28" t="s">
         <v>132</v>
       </c>
       <c r="D28" t="s">
         <v>133</v>
-      </c>
-      <c r="E28" t="s">
-        <v>134</v>
       </c>
       <c r="G28" t="s">
         <v>131</v>
@@ -1855,13 +1767,10 @@
         <v>136</v>
       </c>
       <c r="C29" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D29" t="s">
         <v>138</v>
-      </c>
-      <c r="E29" t="s">
-        <v>139</v>
       </c>
       <c r="G29" t="s">
         <v>137</v>
@@ -1872,16 +1781,13 @@
         <v>140</v>
       </c>
       <c r="B30" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="C30" t="s">
         <v>35</v>
       </c>
       <c r="D30" t="s">
         <v>33</v>
-      </c>
-      <c r="E30" t="s">
-        <v>124</v>
       </c>
       <c r="G30" t="s">
         <v>141</v>
@@ -1892,16 +1798,13 @@
         <v>142</v>
       </c>
       <c r="B31" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C31" t="s">
         <v>144</v>
       </c>
       <c r="D31" t="s">
         <v>145</v>
-      </c>
-      <c r="E31" t="s">
-        <v>146</v>
       </c>
       <c r="G31" t="s">
         <v>143</v>
@@ -1920,9 +1823,6 @@
       <c r="D32" t="s">
         <v>150</v>
       </c>
-      <c r="E32" t="s">
-        <v>151</v>
-      </c>
       <c r="G32" t="s">
         <v>151</v>
       </c>
@@ -1932,16 +1832,13 @@
         <v>152</v>
       </c>
       <c r="B33" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C33" t="s">
         <v>154</v>
       </c>
       <c r="D33" t="s">
         <v>155</v>
-      </c>
-      <c r="E33" t="s">
-        <v>156</v>
       </c>
       <c r="G33" t="s">
         <v>153</v>
@@ -1960,9 +1857,6 @@
       <c r="D34" t="s">
         <v>160</v>
       </c>
-      <c r="E34" t="s">
-        <v>161</v>
-      </c>
       <c r="G34" t="s">
         <v>161</v>
       </c>
@@ -1980,540 +1874,459 @@
       <c r="D35" t="s">
         <v>165</v>
       </c>
-      <c r="E35" t="s">
-        <v>166</v>
-      </c>
       <c r="G35" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>166</v>
+      </c>
+      <c r="B36" t="s">
         <v>167</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>168</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>169</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>170</v>
       </c>
-      <c r="E36" t="s">
+      <c r="G36" t="s">
         <v>171</v>
-      </c>
-      <c r="F36" t="s">
-        <v>172</v>
-      </c>
-      <c r="G36" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>172</v>
+      </c>
+      <c r="B37" t="s">
         <v>173</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
+        <v>176</v>
+      </c>
+      <c r="D37" t="s">
+        <v>175</v>
+      </c>
+      <c r="G37" t="s">
         <v>174</v>
-      </c>
-      <c r="C37" t="s">
-        <v>175</v>
-      </c>
-      <c r="D37" t="s">
-        <v>176</v>
-      </c>
-      <c r="E37" t="s">
-        <v>177</v>
-      </c>
-      <c r="G37" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>177</v>
+      </c>
+      <c r="B38" t="s">
+        <v>181</v>
+      </c>
+      <c r="C38" t="s">
+        <v>179</v>
+      </c>
+      <c r="D38" t="s">
+        <v>180</v>
+      </c>
+      <c r="G38" t="s">
         <v>178</v>
-      </c>
-      <c r="B38" t="s">
-        <v>179</v>
-      </c>
-      <c r="C38" t="s">
-        <v>180</v>
-      </c>
-      <c r="D38" t="s">
-        <v>181</v>
-      </c>
-      <c r="E38" t="s">
-        <v>182</v>
-      </c>
-      <c r="G38" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>182</v>
+      </c>
+      <c r="B39" t="s">
+        <v>186</v>
+      </c>
+      <c r="C39" t="s">
+        <v>184</v>
+      </c>
+      <c r="D39" t="s">
+        <v>185</v>
+      </c>
+      <c r="G39" t="s">
         <v>183</v>
-      </c>
-      <c r="B39" t="s">
-        <v>184</v>
-      </c>
-      <c r="C39" t="s">
-        <v>185</v>
-      </c>
-      <c r="D39" t="s">
-        <v>186</v>
-      </c>
-      <c r="E39" t="s">
-        <v>187</v>
-      </c>
-      <c r="G39" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>187</v>
+      </c>
+      <c r="B40" t="s">
         <v>188</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>189</v>
-      </c>
-      <c r="C40" t="s">
-        <v>190</v>
       </c>
       <c r="D40" t="s">
         <v>191</v>
       </c>
-      <c r="E40" t="s">
-        <v>192</v>
-      </c>
       <c r="G40" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>192</v>
+      </c>
+      <c r="B41" t="s">
         <v>193</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>194</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>195</v>
       </c>
-      <c r="D41" t="s">
+      <c r="G41" t="s">
         <v>196</v>
-      </c>
-      <c r="E41" t="s">
-        <v>197</v>
-      </c>
-      <c r="G41" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>197</v>
+      </c>
+      <c r="B42" t="s">
         <v>198</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>199</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>200</v>
       </c>
-      <c r="D42" t="s">
-        <v>201</v>
-      </c>
-      <c r="E42" t="s">
-        <v>202</v>
-      </c>
       <c r="G42" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>201</v>
+      </c>
+      <c r="B43" t="s">
+        <v>202</v>
+      </c>
+      <c r="C43" t="s">
         <v>203</v>
       </c>
-      <c r="B43" t="s">
+      <c r="D43" t="s">
         <v>204</v>
       </c>
-      <c r="C43" t="s">
-        <v>205</v>
-      </c>
-      <c r="D43" t="s">
-        <v>206</v>
-      </c>
-      <c r="E43" t="s">
-        <v>207</v>
-      </c>
       <c r="G43" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>205</v>
+      </c>
+      <c r="B44" t="s">
+        <v>206</v>
+      </c>
+      <c r="C44" t="s">
+        <v>207</v>
+      </c>
+      <c r="D44" t="s">
         <v>208</v>
       </c>
-      <c r="B44" t="s">
+      <c r="G44" t="s">
         <v>209</v>
-      </c>
-      <c r="C44" t="s">
-        <v>210</v>
-      </c>
-      <c r="D44" t="s">
-        <v>211</v>
-      </c>
-      <c r="E44" t="s">
-        <v>212</v>
-      </c>
-      <c r="G44" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>210</v>
+      </c>
+      <c r="B45" t="s">
+        <v>211</v>
+      </c>
+      <c r="C45" t="s">
+        <v>214</v>
+      </c>
+      <c r="D45" t="s">
         <v>213</v>
       </c>
-      <c r="B45" t="s">
-        <v>214</v>
-      </c>
-      <c r="C45" t="s">
-        <v>215</v>
-      </c>
-      <c r="D45" t="s">
-        <v>216</v>
-      </c>
-      <c r="E45" t="s">
-        <v>217</v>
-      </c>
       <c r="G45" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B46" t="s">
         <v>219</v>
       </c>
       <c r="C46" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D46" t="s">
-        <v>221</v>
-      </c>
-      <c r="E46" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G46" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>220</v>
+      </c>
+      <c r="B47" t="s">
+        <v>221</v>
+      </c>
+      <c r="C47" t="s">
+        <v>222</v>
+      </c>
+      <c r="D47" t="s">
+        <v>224</v>
+      </c>
+      <c r="G47" t="s">
         <v>223</v>
-      </c>
-      <c r="B47" t="s">
-        <v>224</v>
-      </c>
-      <c r="C47" t="s">
-        <v>225</v>
-      </c>
-      <c r="D47" t="s">
-        <v>226</v>
-      </c>
-      <c r="E47" t="s">
-        <v>227</v>
-      </c>
-      <c r="G47" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B48" t="s">
         <v>229</v>
       </c>
       <c r="C48" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D48" t="s">
-        <v>231</v>
-      </c>
-      <c r="E48" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G48" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>230</v>
+      </c>
+      <c r="B49" t="s">
+        <v>231</v>
+      </c>
+      <c r="C49" t="s">
+        <v>232</v>
+      </c>
+      <c r="D49" t="s">
         <v>233</v>
       </c>
-      <c r="B49" t="s">
+      <c r="G49" t="s">
         <v>234</v>
-      </c>
-      <c r="C49" t="s">
-        <v>235</v>
-      </c>
-      <c r="D49" t="s">
-        <v>236</v>
-      </c>
-      <c r="E49" t="s">
-        <v>237</v>
-      </c>
-      <c r="G49" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>235</v>
+      </c>
+      <c r="B50" t="s">
+        <v>171</v>
+      </c>
+      <c r="C50" t="s">
+        <v>237</v>
+      </c>
+      <c r="D50" t="s">
         <v>238</v>
       </c>
-      <c r="B50" t="s">
+      <c r="E50" t="s">
         <v>239</v>
       </c>
-      <c r="C50" t="s">
-        <v>240</v>
-      </c>
-      <c r="D50" t="s">
-        <v>241</v>
-      </c>
-      <c r="E50" t="s">
-        <v>242</v>
-      </c>
-      <c r="F50" t="s">
-        <v>172</v>
-      </c>
       <c r="G50" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>240</v>
+      </c>
+      <c r="B51" t="s">
+        <v>241</v>
+      </c>
+      <c r="C51" t="s">
         <v>243</v>
       </c>
-      <c r="B51" t="s">
-        <v>244</v>
-      </c>
-      <c r="C51" t="s">
-        <v>245</v>
-      </c>
       <c r="D51" t="s">
-        <v>246</v>
-      </c>
-      <c r="E51" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G51" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>244</v>
+      </c>
+      <c r="B52" t="s">
+        <v>245</v>
+      </c>
+      <c r="C52" t="s">
         <v>248</v>
       </c>
-      <c r="B52" t="s">
-        <v>249</v>
-      </c>
-      <c r="C52" t="s">
-        <v>250</v>
-      </c>
       <c r="D52" t="s">
-        <v>251</v>
-      </c>
-      <c r="E52" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G52" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B53" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C53" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D53" t="s">
-        <v>256</v>
-      </c>
-      <c r="E53" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="G53" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>253</v>
+      </c>
+      <c r="B54" t="s">
+        <v>254</v>
+      </c>
+      <c r="C54" t="s">
+        <v>255</v>
+      </c>
+      <c r="D54" t="s">
+        <v>256</v>
+      </c>
+      <c r="E54" t="s">
+        <v>171</v>
+      </c>
+      <c r="G54" t="s">
         <v>257</v>
-      </c>
-      <c r="B54" t="s">
-        <v>258</v>
-      </c>
-      <c r="C54" t="s">
-        <v>259</v>
-      </c>
-      <c r="D54" t="s">
-        <v>260</v>
-      </c>
-      <c r="E54" t="s">
-        <v>261</v>
-      </c>
-      <c r="F54" t="s">
-        <v>172</v>
-      </c>
-      <c r="G54" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>258</v>
+      </c>
+      <c r="B55" t="s">
+        <v>259</v>
+      </c>
+      <c r="C55" t="s">
         <v>262</v>
       </c>
-      <c r="B55" t="s">
-        <v>263</v>
-      </c>
-      <c r="C55" t="s">
-        <v>264</v>
-      </c>
       <c r="D55" t="s">
-        <v>265</v>
-      </c>
-      <c r="E55" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G55" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>263</v>
+      </c>
+      <c r="B56" t="s">
+        <v>264</v>
+      </c>
+      <c r="C56" t="s">
         <v>267</v>
       </c>
-      <c r="B56" t="s">
-        <v>268</v>
-      </c>
-      <c r="C56" t="s">
-        <v>269</v>
-      </c>
       <c r="D56" t="s">
-        <v>270</v>
-      </c>
-      <c r="E56" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="G56" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>268</v>
+      </c>
+      <c r="B57" t="s">
         <v>272</v>
       </c>
-      <c r="B57" t="s">
-        <v>273</v>
-      </c>
       <c r="C57" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D57" t="s">
-        <v>275</v>
-      </c>
-      <c r="E57" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G57" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>273</v>
+      </c>
+      <c r="B58" t="s">
         <v>277</v>
       </c>
-      <c r="B58" t="s">
-        <v>278</v>
-      </c>
       <c r="C58" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D58" t="s">
-        <v>280</v>
-      </c>
-      <c r="E58" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G58" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>278</v>
+      </c>
+      <c r="B59" t="s">
         <v>282</v>
       </c>
-      <c r="B59" t="s">
-        <v>283</v>
-      </c>
       <c r="C59" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D59" t="s">
-        <v>285</v>
-      </c>
-      <c r="E59" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="G59" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>283</v>
+      </c>
+      <c r="B60" t="s">
         <v>287</v>
       </c>
-      <c r="B60" t="s">
-        <v>288</v>
-      </c>
       <c r="C60" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D60" t="s">
-        <v>290</v>
-      </c>
-      <c r="E60" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="G60" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>288</v>
+      </c>
+      <c r="B61" t="s">
         <v>292</v>
       </c>
-      <c r="B61" t="s">
-        <v>293</v>
-      </c>
       <c r="C61" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D61" t="s">
-        <v>295</v>
-      </c>
-      <c r="E61" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G61" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
